--- a/assets/User Stories.xlsx
+++ b/assets/User Stories.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuwildcat-my.sharepoint.com/personal/aja3758_ads_northwestern_edu/Documents/Classes/KIEI 451/CODE/final_project/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{1DA9E08A-4567-429F-8D19-8A430D3CB088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08D75BE5-B7B3-428B-A844-E71894C487EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{793E9CF3-1EA0-4834-AD60-63054D4C01B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EEA8B01-7EC8-4F42-B473-E52A3806A0C5}"/>
+    <workbookView xWindow="28755" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EEA8B01-7EC8-4F42-B473-E52A3806A0C5}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="2" r:id="rId1"/>
-    <sheet name="Profiles" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,160 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>Rider</t>
-  </si>
-  <si>
-    <t>Family Member</t>
-  </si>
-  <si>
-    <t>Nursing Home/Care Facility Coordinator</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Functionality</t>
-  </si>
-  <si>
-    <t>-Request a new ride on behalf of rider
--View rider's favorite drivers
--View pickup and dropoff information (i.e. timing, etc.)
--View driver profile and contact info
--Select from a list of relevant medical conditions and things to watch out for
--Upload a photo of the rider
--File a complaint?
--Receive confirmation of pickup and arrival</t>
-  </si>
-  <si>
-    <t>-Request a new ride on behalf of rider
--View rider's favorite drivers
--Receive confirmation of pickup and arrival
--View pickup and dropoff information
--View driver contact info</t>
-  </si>
-  <si>
-    <t>Items in bold indicate items required for MVP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Accept new rides</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-Receive pickup/dropoff locations
--Confirm drop-off
--View details of post drop-off assistance
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-Rate passengers?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-View list of medical conditions, things to watch out for, etc.
--Have speed dial options for family members, hospital, etc. in case of emergency
--Upload a photo of self</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-Request a new ride, or get a link for family members to request a ride
--View pickup and dropoff information (i.e. timing, etc.)
--View driver info
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-Rate and review driver
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Save driver to favorites list
--Post self info, fun facts, etc. to kickstart conversations with driver
--Overall minimal, simple, user-friendly features to eliminate confusion</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>As a logged out user, I want to be able to navigate the website and see available drivers</t>
   </si>
   <si>
-    <t>As a logged out user, I want to be able to register or sign in</t>
-  </si>
-  <si>
-    <t>As a logged out user, I want to be able to apply to be a driver</t>
-  </si>
-  <si>
-    <t>As a logged in rider, I want to see all available drivers in my area</t>
-  </si>
-  <si>
     <t>As a logged in rider, I want to be able to search for a driver</t>
   </si>
   <si>
@@ -211,22 +61,17 @@
   </si>
   <si>
     <t>User Story Description</t>
+  </si>
+  <si>
+    <t>As a logged out user, I want to be able to register, sign in, or apply to become a driver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -270,20 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,11 +437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAAB593-9E1C-42CE-A9CB-D23CE84C1A1F}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,215 +451,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
+      <c r="A4" s="2">
+        <f>A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <f t="shared" si="0"/>
+      <c r="A5" s="2">
+        <f t="shared" ref="A5:A9" si="0">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBD2EA2-427D-403B-967F-1582A19C84FA}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
